--- a/RAW2/tableau_abeille_sp_vs_plante.xlsx
+++ b/RAW2/tableau_abeille_sp_vs_plante.xlsx
@@ -505,217 +505,217 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Bombus terrestris</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
           <t>Bombus vestalis</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Ceratina cyanea</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Chelostoma florisomne</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Coelioxys inermis</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Colletes daviesanus</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Colletes hederae</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Dasypoda hirtipes</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Halictus scabiosae</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Heriades truncorum</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Hoplitis adunca</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum calceatum</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum laticeps</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum leucozonium</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum morio</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum pauxillum</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum sexnotatum</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum villosulum</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Lasioglossum zonulum</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Megachile centuncularis</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Megachile ericetorum</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Megachile rotundata</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Megachile willughbiella</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Nomada bifasciata</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Nomada flava</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Nomada flavoguttata</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Nomada fucata</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Nomada goodeniana</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Nomada lathburiana</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Nomada marshamella</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Nomada panzeri</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Nomada signata</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Nomada succincta</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Osmia bicolor</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Osmia bicornis</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Osmia caerulescens</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Osmia cornuta</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Osmia leaiana</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Sphecodes albilabris</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Sphecodes miniatus</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Sphecodes monilicornis</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Sphecodes pellucidus</t>
         </is>
       </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Stelis punctulatissima</t>
+        </is>
+      </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>Stelis punctulatissima</t>
+          <t>Terrestribombus  sp.</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
@@ -815,133 +815,133 @@
         <v>0</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
         <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1526,76 +1526,76 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
         <v>1</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
       <c r="BO5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5">
         <v>0</v>
@@ -2427,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9">
         <v>0</v>
@@ -2611,91 +2611,91 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>7</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
         <v>3</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>2</v>
-      </c>
-      <c r="AP10">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
         <v>4</v>
       </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
         <v>1</v>
       </c>
-      <c r="AS10">
-        <v>7</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>3</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>4</v>
       </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
+      <c r="BE10">
         <v>1</v>
       </c>
-      <c r="BE10">
-        <v>4</v>
-      </c>
       <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
         <v>1</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
       </c>
       <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="BO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ12">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="BK13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -3714,133 +3714,133 @@
         <v>0</v>
       </c>
       <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
         <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0</v>
-      </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>0</v>
-      </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>0</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
       </c>
       <c r="BU15">
         <v>0</v>
@@ -3937,133 +3937,133 @@
         <v>0</v>
       </c>
       <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
         <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>2</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>3</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
         <v>1</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>2</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <v>3</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>0</v>
-      </c>
-      <c r="BT16">
-        <v>0</v>
       </c>
       <c r="BU16">
         <v>0</v>
@@ -4437,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -4606,133 +4606,133 @@
         <v>0</v>
       </c>
       <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>3</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
         <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>3</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>0</v>
-      </c>
-      <c r="BD19">
-        <v>0</v>
-      </c>
-      <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
-        <v>0</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>0</v>
-      </c>
-      <c r="BI19">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>0</v>
-      </c>
-      <c r="BO19">
-        <v>0</v>
-      </c>
-      <c r="BP19">
-        <v>0</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>0</v>
-      </c>
-      <c r="BT19">
-        <v>0</v>
       </c>
       <c r="BU19">
         <v>0</v>
@@ -5070,46 +5070,46 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
         <v>1</v>
       </c>
       <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>1</v>
       </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
-      </c>
       <c r="AW21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -5278,28 +5278,28 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>1</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
@@ -5519,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -5540,25 +5540,25 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
         <v>1</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
       <c r="AX23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY23">
         <v>0</v>
@@ -5775,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -6001,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY25">
         <v>0</v>
@@ -6269,16 +6269,16 @@
         <v>0</v>
       </c>
       <c r="BL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
         <v>1</v>
       </c>
-      <c r="BN26">
-        <v>0</v>
-      </c>
       <c r="BO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -6634,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -6667,79 +6667,79 @@
         <v>0</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
         <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
-        <v>0</v>
-      </c>
-      <c r="BE28">
-        <v>0</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>0</v>
-      </c>
-      <c r="BI28">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BK28">
-        <v>0</v>
-      </c>
-      <c r="BL28">
-        <v>0</v>
-      </c>
-      <c r="BM28">
-        <v>0</v>
-      </c>
-      <c r="BN28">
-        <v>0</v>
-      </c>
-      <c r="BO28">
-        <v>0</v>
-      </c>
-      <c r="BP28">
-        <v>0</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>0</v>
-      </c>
-      <c r="BT28">
-        <v>0</v>
       </c>
       <c r="BU28">
         <v>0</v>
@@ -6836,133 +6836,133 @@
         <v>0</v>
       </c>
       <c r="AD29">
+        <v>2</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
         <v>1</v>
       </c>
-      <c r="AE29">
-        <v>2</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
         <v>1</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
-      </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
-        <v>0</v>
-      </c>
-      <c r="BE29">
-        <v>0</v>
-      </c>
-      <c r="BF29">
-        <v>0</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>0</v>
-      </c>
-      <c r="BI29">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BK29">
-        <v>0</v>
-      </c>
-      <c r="BL29">
-        <v>0</v>
-      </c>
-      <c r="BM29">
-        <v>0</v>
-      </c>
-      <c r="BN29">
-        <v>0</v>
-      </c>
-      <c r="BO29">
-        <v>0</v>
-      </c>
-      <c r="BP29">
-        <v>0</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>0</v>
-      </c>
-      <c r="BT29">
-        <v>0</v>
       </c>
       <c r="BU29">
         <v>0</v>
@@ -7339,10 +7339,10 @@
         <v>0</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY31">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -7951,37 +7951,37 @@
         <v>0</v>
       </c>
       <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
         <v>2</v>
       </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
       <c r="AN34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -8050,10 +8050,10 @@
         <v>0</v>
       </c>
       <c r="BK34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BM34">
         <v>0</v>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="BT34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU34">
         <v>0</v>
@@ -8261,10 +8261,10 @@
         <v>0</v>
       </c>
       <c r="BG35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI35">
         <v>0</v>
@@ -8397,133 +8397,133 @@
         <v>0</v>
       </c>
       <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
         <v>1</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>0</v>
-      </c>
-      <c r="BF36">
-        <v>0</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>0</v>
-      </c>
-      <c r="BK36">
-        <v>0</v>
-      </c>
-      <c r="BL36">
-        <v>0</v>
-      </c>
-      <c r="BM36">
-        <v>0</v>
-      </c>
-      <c r="BN36">
-        <v>0</v>
-      </c>
-      <c r="BO36">
-        <v>0</v>
-      </c>
-      <c r="BP36">
-        <v>0</v>
-      </c>
-      <c r="BQ36">
-        <v>0</v>
-      </c>
-      <c r="BR36">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>0</v>
-      </c>
-      <c r="BT36">
-        <v>0</v>
       </c>
       <c r="BU36">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="BD37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF37">
         <v>0</v>
@@ -9388,16 +9388,16 @@
         <v>0</v>
       </c>
       <c r="BK40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL40">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BM40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO40">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -9756,10 +9756,10 @@
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -9979,10 +9979,10 @@
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -10503,10 +10503,10 @@
         <v>0</v>
       </c>
       <c r="BK45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM45">
         <v>0</v>
@@ -10648,10 +10648,10 @@
         <v>0</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -10850,61 +10850,61 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
         <v>1</v>
       </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
-        <v>0</v>
-      </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
       <c r="AV47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47">
         <v>0</v>
@@ -11118,82 +11118,82 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
         <v>1</v>
       </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
       <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
         <v>1</v>
       </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
       <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+      <c r="BQ48">
         <v>1</v>
       </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>0</v>
-      </c>
-      <c r="BK48">
-        <v>0</v>
-      </c>
-      <c r="BL48">
-        <v>0</v>
-      </c>
-      <c r="BM48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>0</v>
-      </c>
-      <c r="BO48">
-        <v>0</v>
-      </c>
-      <c r="BP48">
-        <v>0</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
       <c r="BR48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS48">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -11368,61 +11368,61 @@
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
         <v>1</v>
       </c>
-      <c r="BD49">
-        <v>0</v>
-      </c>
-      <c r="BE49">
-        <v>0</v>
-      </c>
-      <c r="BF49">
-        <v>0</v>
-      </c>
-      <c r="BG49">
-        <v>0</v>
-      </c>
-      <c r="BH49">
-        <v>0</v>
-      </c>
-      <c r="BI49">
-        <v>0</v>
-      </c>
-      <c r="BJ49">
-        <v>0</v>
-      </c>
-      <c r="BK49">
-        <v>0</v>
-      </c>
-      <c r="BL49">
-        <v>0</v>
-      </c>
-      <c r="BM49">
-        <v>0</v>
-      </c>
-      <c r="BN49">
-        <v>0</v>
-      </c>
-      <c r="BO49">
-        <v>0</v>
-      </c>
-      <c r="BP49">
-        <v>0</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>0</v>
-      </c>
       <c r="BT49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU49">
         <v>0</v>
@@ -11974,10 +11974,10 @@
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -12206,52 +12206,52 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
         <v>1</v>
       </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>0</v>
-      </c>
-      <c r="AW53">
-        <v>0</v>
-      </c>
-      <c r="AX53">
-        <v>0</v>
-      </c>
       <c r="AY53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53">
         <v>0</v>
@@ -12486,10 +12486,10 @@
         <v>0</v>
       </c>
       <c r="BC54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54">
         <v>0</v>
@@ -13526,133 +13526,133 @@
         <v>0</v>
       </c>
       <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+      <c r="BQ59">
+        <v>0</v>
+      </c>
+      <c r="BR59">
+        <v>0</v>
+      </c>
+      <c r="BS59">
+        <v>0</v>
+      </c>
+      <c r="BT59">
         <v>1</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>0</v>
-      </c>
-      <c r="AR59">
-        <v>0</v>
-      </c>
-      <c r="AS59">
-        <v>0</v>
-      </c>
-      <c r="AT59">
-        <v>0</v>
-      </c>
-      <c r="AU59">
-        <v>0</v>
-      </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>0</v>
-      </c>
-      <c r="AX59">
-        <v>0</v>
-      </c>
-      <c r="AY59">
-        <v>0</v>
-      </c>
-      <c r="AZ59">
-        <v>0</v>
-      </c>
-      <c r="BA59">
-        <v>0</v>
-      </c>
-      <c r="BB59">
-        <v>0</v>
-      </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
-      <c r="BD59">
-        <v>0</v>
-      </c>
-      <c r="BE59">
-        <v>0</v>
-      </c>
-      <c r="BF59">
-        <v>0</v>
-      </c>
-      <c r="BG59">
-        <v>0</v>
-      </c>
-      <c r="BH59">
-        <v>0</v>
-      </c>
-      <c r="BI59">
-        <v>0</v>
-      </c>
-      <c r="BJ59">
-        <v>0</v>
-      </c>
-      <c r="BK59">
-        <v>0</v>
-      </c>
-      <c r="BL59">
-        <v>0</v>
-      </c>
-      <c r="BM59">
-        <v>0</v>
-      </c>
-      <c r="BN59">
-        <v>0</v>
-      </c>
-      <c r="BO59">
-        <v>0</v>
-      </c>
-      <c r="BP59">
-        <v>0</v>
-      </c>
-      <c r="BQ59">
-        <v>0</v>
-      </c>
-      <c r="BR59">
-        <v>0</v>
-      </c>
-      <c r="BS59">
-        <v>0</v>
-      </c>
-      <c r="BT59">
-        <v>0</v>
       </c>
       <c r="BU59">
         <v>0</v>
@@ -14011,10 +14011,10 @@
         <v>0</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -14294,10 +14294,10 @@
         <v>0</v>
       </c>
       <c r="BK62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM62">
         <v>0</v>
@@ -14418,133 +14418,133 @@
         <v>0</v>
       </c>
       <c r="AD63">
+        <v>5</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>1</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>1</v>
+      </c>
+      <c r="BQ63">
+        <v>0</v>
+      </c>
+      <c r="BR63">
+        <v>1</v>
+      </c>
+      <c r="BS63">
+        <v>0</v>
+      </c>
+      <c r="BT63">
         <v>3</v>
-      </c>
-      <c r="AE63">
-        <v>5</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
-      <c r="AM63">
-        <v>0</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>0</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>0</v>
-      </c>
-      <c r="AR63">
-        <v>0</v>
-      </c>
-      <c r="AS63">
-        <v>0</v>
-      </c>
-      <c r="AT63">
-        <v>0</v>
-      </c>
-      <c r="AU63">
-        <v>0</v>
-      </c>
-      <c r="AV63">
-        <v>0</v>
-      </c>
-      <c r="AW63">
-        <v>0</v>
-      </c>
-      <c r="AX63">
-        <v>0</v>
-      </c>
-      <c r="AY63">
-        <v>0</v>
-      </c>
-      <c r="AZ63">
-        <v>0</v>
-      </c>
-      <c r="BA63">
-        <v>0</v>
-      </c>
-      <c r="BB63">
-        <v>0</v>
-      </c>
-      <c r="BC63">
-        <v>0</v>
-      </c>
-      <c r="BD63">
-        <v>0</v>
-      </c>
-      <c r="BE63">
-        <v>0</v>
-      </c>
-      <c r="BF63">
-        <v>0</v>
-      </c>
-      <c r="BG63">
-        <v>0</v>
-      </c>
-      <c r="BH63">
-        <v>0</v>
-      </c>
-      <c r="BI63">
-        <v>0</v>
-      </c>
-      <c r="BJ63">
-        <v>0</v>
-      </c>
-      <c r="BK63">
-        <v>0</v>
-      </c>
-      <c r="BL63">
-        <v>1</v>
-      </c>
-      <c r="BM63">
-        <v>0</v>
-      </c>
-      <c r="BN63">
-        <v>0</v>
-      </c>
-      <c r="BO63">
-        <v>0</v>
-      </c>
-      <c r="BP63">
-        <v>0</v>
-      </c>
-      <c r="BQ63">
-        <v>1</v>
-      </c>
-      <c r="BR63">
-        <v>0</v>
-      </c>
-      <c r="BS63">
-        <v>1</v>
-      </c>
-      <c r="BT63">
-        <v>0</v>
       </c>
       <c r="BU63">
         <v>0</v>
@@ -14888,10 +14888,10 @@
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -15376,10 +15376,10 @@
         <v>0</v>
       </c>
       <c r="AZ67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB67">
         <v>0</v>
@@ -15539,103 +15539,103 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>7</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
         <v>1</v>
       </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
-      <c r="AK68">
-        <v>0</v>
-      </c>
-      <c r="AL68">
-        <v>0</v>
-      </c>
-      <c r="AM68">
-        <v>0</v>
-      </c>
-      <c r="AN68">
-        <v>0</v>
-      </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
-      <c r="AP68">
-        <v>0</v>
-      </c>
-      <c r="AQ68">
-        <v>0</v>
-      </c>
-      <c r="AR68">
-        <v>0</v>
-      </c>
-      <c r="AS68">
-        <v>7</v>
-      </c>
-      <c r="AT68">
-        <v>0</v>
-      </c>
-      <c r="AU68">
-        <v>0</v>
-      </c>
-      <c r="AV68">
-        <v>0</v>
-      </c>
-      <c r="AW68">
-        <v>0</v>
-      </c>
-      <c r="AX68">
-        <v>0</v>
-      </c>
-      <c r="AY68">
-        <v>0</v>
-      </c>
       <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
         <v>1</v>
       </c>
-      <c r="BA68">
-        <v>0</v>
-      </c>
-      <c r="BB68">
-        <v>0</v>
-      </c>
-      <c r="BC68">
-        <v>0</v>
-      </c>
-      <c r="BD68">
-        <v>0</v>
-      </c>
-      <c r="BE68">
-        <v>0</v>
-      </c>
-      <c r="BF68">
-        <v>0</v>
-      </c>
-      <c r="BG68">
-        <v>0</v>
-      </c>
-      <c r="BH68">
-        <v>0</v>
-      </c>
-      <c r="BI68">
-        <v>0</v>
-      </c>
-      <c r="BJ68">
-        <v>0</v>
-      </c>
-      <c r="BK68">
-        <v>0</v>
-      </c>
       <c r="BL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM68">
         <v>0</v>
@@ -15777,10 +15777,10 @@
         <v>0</v>
       </c>
       <c r="AK69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM69">
         <v>0</v>
@@ -15792,22 +15792,22 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>3</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
         <v>2</v>
       </c>
-      <c r="AR69">
-        <v>0</v>
-      </c>
-      <c r="AS69">
-        <v>3</v>
-      </c>
-      <c r="AT69">
-        <v>0</v>
-      </c>
       <c r="AU69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV69">
         <v>0</v>
@@ -15855,10 +15855,10 @@
         <v>0</v>
       </c>
       <c r="BK69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM69">
         <v>0</v>
@@ -16075,10 +16075,10 @@
         <v>0</v>
       </c>
       <c r="BJ70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL70">
         <v>0</v>
@@ -16241,10 +16241,10 @@
         <v>0</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -16440,16 +16440,16 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
         <v>1</v>
       </c>
-      <c r="AK72">
-        <v>0</v>
-      </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
         <v>0</v>
@@ -16970,10 +16970,10 @@
         <v>0</v>
       </c>
       <c r="BK74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -17097,10 +17097,10 @@
         <v>0</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG75">
         <v>0</v>
@@ -17549,55 +17549,55 @@
         <v>0</v>
       </c>
       <c r="AG77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
         <v>1</v>
       </c>
-      <c r="AI77">
-        <v>0</v>
-      </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
-      <c r="AK77">
-        <v>0</v>
-      </c>
-      <c r="AL77">
-        <v>0</v>
-      </c>
-      <c r="AM77">
-        <v>0</v>
-      </c>
-      <c r="AN77">
-        <v>0</v>
-      </c>
-      <c r="AO77">
-        <v>0</v>
-      </c>
-      <c r="AP77">
-        <v>0</v>
-      </c>
-      <c r="AQ77">
-        <v>0</v>
-      </c>
-      <c r="AR77">
-        <v>0</v>
-      </c>
-      <c r="AS77">
-        <v>0</v>
-      </c>
-      <c r="AT77">
-        <v>0</v>
-      </c>
-      <c r="AU77">
-        <v>0</v>
-      </c>
-      <c r="AV77">
-        <v>0</v>
-      </c>
       <c r="AW77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX77">
         <v>0</v>
@@ -17781,10 +17781,10 @@
         <v>0</v>
       </c>
       <c r="AJ78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK78">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <v>0</v>
@@ -18034,10 +18034,10 @@
         <v>0</v>
       </c>
       <c r="AT79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV79">
         <v>0</v>
@@ -18411,7 +18411,7 @@
         <v>0</v>
       </c>
       <c r="W81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X81">
         <v>1</v>
@@ -18432,70 +18432,70 @@
         <v>0</v>
       </c>
       <c r="AD81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
         <v>1</v>
       </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-      <c r="AI81">
-        <v>0</v>
-      </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
       <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
         <v>1</v>
       </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
-      <c r="AN81">
-        <v>0</v>
-      </c>
-      <c r="AO81">
-        <v>2</v>
-      </c>
-      <c r="AP81">
-        <v>0</v>
-      </c>
-      <c r="AQ81">
-        <v>0</v>
-      </c>
-      <c r="AR81">
-        <v>0</v>
-      </c>
-      <c r="AS81">
-        <v>0</v>
-      </c>
-      <c r="AT81">
-        <v>0</v>
-      </c>
-      <c r="AU81">
-        <v>0</v>
-      </c>
-      <c r="AV81">
-        <v>0</v>
-      </c>
-      <c r="AW81">
-        <v>0</v>
-      </c>
-      <c r="AX81">
-        <v>0</v>
-      </c>
       <c r="AY81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ81">
         <v>0</v>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="BT81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU81">
         <v>0</v>
@@ -19113,10 +19113,10 @@
         <v>0</v>
       </c>
       <c r="AH84">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI84">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AJ84">
         <v>0</v>
@@ -19125,10 +19125,10 @@
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN84">
         <v>0</v>
@@ -19327,112 +19327,112 @@
         <v>0</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1</v>
       </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-      <c r="AI85">
-        <v>0</v>
-      </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM85">
         <v>0</v>
       </c>
       <c r="AN85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO85">
         <v>3</v>
       </c>
       <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>1</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>2</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>1</v>
+      </c>
+      <c r="BD85">
+        <v>2</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
         <v>3</v>
       </c>
-      <c r="AQ85">
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
         <v>1</v>
       </c>
-      <c r="AR85">
-        <v>0</v>
-      </c>
-      <c r="AS85">
-        <v>0</v>
-      </c>
-      <c r="AT85">
-        <v>0</v>
-      </c>
-      <c r="AU85">
-        <v>1</v>
-      </c>
-      <c r="AV85">
-        <v>0</v>
-      </c>
-      <c r="AW85">
-        <v>0</v>
-      </c>
-      <c r="AX85">
-        <v>0</v>
-      </c>
-      <c r="AY85">
-        <v>0</v>
-      </c>
-      <c r="AZ85">
-        <v>0</v>
-      </c>
-      <c r="BA85">
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>7</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
         <v>2</v>
       </c>
-      <c r="BB85">
-        <v>0</v>
-      </c>
-      <c r="BC85">
-        <v>0</v>
-      </c>
-      <c r="BD85">
-        <v>1</v>
-      </c>
-      <c r="BE85">
-        <v>2</v>
-      </c>
-      <c r="BF85">
-        <v>0</v>
-      </c>
-      <c r="BG85">
-        <v>3</v>
-      </c>
-      <c r="BH85">
-        <v>0</v>
-      </c>
-      <c r="BI85">
-        <v>1</v>
-      </c>
-      <c r="BJ85">
-        <v>0</v>
-      </c>
-      <c r="BK85">
-        <v>0</v>
-      </c>
-      <c r="BL85">
-        <v>7</v>
-      </c>
-      <c r="BM85">
-        <v>0</v>
-      </c>
       <c r="BN85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO85">
         <v>0</v>
@@ -19770,133 +19770,133 @@
         <v>0</v>
       </c>
       <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
+      <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
+        <v>0</v>
+      </c>
+      <c r="AY87">
+        <v>0</v>
+      </c>
+      <c r="AZ87">
+        <v>0</v>
+      </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>0</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+      <c r="BQ87">
+        <v>0</v>
+      </c>
+      <c r="BR87">
+        <v>0</v>
+      </c>
+      <c r="BS87">
+        <v>0</v>
+      </c>
+      <c r="BT87">
         <v>1</v>
-      </c>
-      <c r="AE87">
-        <v>0</v>
-      </c>
-      <c r="AF87">
-        <v>0</v>
-      </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-      <c r="AI87">
-        <v>0</v>
-      </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
-      <c r="AK87">
-        <v>0</v>
-      </c>
-      <c r="AL87">
-        <v>0</v>
-      </c>
-      <c r="AM87">
-        <v>0</v>
-      </c>
-      <c r="AN87">
-        <v>0</v>
-      </c>
-      <c r="AO87">
-        <v>0</v>
-      </c>
-      <c r="AP87">
-        <v>0</v>
-      </c>
-      <c r="AQ87">
-        <v>0</v>
-      </c>
-      <c r="AR87">
-        <v>0</v>
-      </c>
-      <c r="AS87">
-        <v>0</v>
-      </c>
-      <c r="AT87">
-        <v>0</v>
-      </c>
-      <c r="AU87">
-        <v>0</v>
-      </c>
-      <c r="AV87">
-        <v>0</v>
-      </c>
-      <c r="AW87">
-        <v>0</v>
-      </c>
-      <c r="AX87">
-        <v>0</v>
-      </c>
-      <c r="AY87">
-        <v>0</v>
-      </c>
-      <c r="AZ87">
-        <v>0</v>
-      </c>
-      <c r="BA87">
-        <v>0</v>
-      </c>
-      <c r="BB87">
-        <v>0</v>
-      </c>
-      <c r="BC87">
-        <v>0</v>
-      </c>
-      <c r="BD87">
-        <v>0</v>
-      </c>
-      <c r="BE87">
-        <v>0</v>
-      </c>
-      <c r="BF87">
-        <v>0</v>
-      </c>
-      <c r="BG87">
-        <v>0</v>
-      </c>
-      <c r="BH87">
-        <v>0</v>
-      </c>
-      <c r="BI87">
-        <v>0</v>
-      </c>
-      <c r="BJ87">
-        <v>0</v>
-      </c>
-      <c r="BK87">
-        <v>0</v>
-      </c>
-      <c r="BL87">
-        <v>0</v>
-      </c>
-      <c r="BM87">
-        <v>0</v>
-      </c>
-      <c r="BN87">
-        <v>0</v>
-      </c>
-      <c r="BO87">
-        <v>0</v>
-      </c>
-      <c r="BP87">
-        <v>0</v>
-      </c>
-      <c r="BQ87">
-        <v>0</v>
-      </c>
-      <c r="BR87">
-        <v>0</v>
-      </c>
-      <c r="BS87">
-        <v>0</v>
-      </c>
-      <c r="BT87">
-        <v>0</v>
       </c>
       <c r="BU87">
         <v>0</v>
@@ -20237,10 +20237,10 @@
         <v>0</v>
       </c>
       <c r="AK89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM89">
         <v>0</v>
@@ -20885,10 +20885,10 @@
         <v>0</v>
       </c>
       <c r="AD92">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -21400,10 +21400,10 @@
         <v>0</v>
       </c>
       <c r="BA94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC94">
         <v>0</v>
@@ -21593,13 +21593,13 @@
         <v>0</v>
       </c>
       <c r="AQ95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT95">
         <v>0</v>
@@ -21629,10 +21629,10 @@
         <v>0</v>
       </c>
       <c r="BC95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE95">
         <v>0</v>
@@ -22021,10 +22021,10 @@
         <v>0</v>
       </c>
       <c r="AK97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM97">
         <v>0</v>
